--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G4" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="H4" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I4" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="Q4" t="n">
         <v>1.84</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="G6" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G7" t="n">
         <v>1.94</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
         <v>2.98</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G11" t="n">
         <v>3.45</v>
       </c>
       <c r="H11" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>2.32</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
         <v>2.66</v>
@@ -2029,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="K12" t="n">
         <v>5.2</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
-        <v>2.64</v>
+        <v>1.49</v>
       </c>
       <c r="I13" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>2.16</v>
+        <v>1.49</v>
       </c>
       <c r="K13" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.05</v>
+        <v>1.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="G4" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="H4" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="Q4" t="n">
         <v>1.84</v>
@@ -1765,7 +1765,7 @@
         <v>3.35</v>
       </c>
       <c r="L10" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="M10" t="n">
         <v>1.1</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
@@ -709,10 +709,10 @@
         <v>1.34</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="G4" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I4" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
         <v>1.84</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="G6" t="n">
-        <v>2.02</v>
+        <v>980</v>
       </c>
       <c r="H6" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.98</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
@@ -1354,7 +1354,7 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>2.06</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1480,13 +1480,13 @@
         <v>2.64</v>
       </c>
       <c r="G8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J8" t="n">
         <v>2.86</v>
@@ -1618,7 +1618,7 @@
         <v>2.26</v>
       </c>
       <c r="H9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I9" t="n">
         <v>4.7</v>
@@ -1765,7 +1765,7 @@
         <v>3.35</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M10" t="n">
         <v>1.1</v>
@@ -1849,7 +1849,7 @@
         <v>210</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
         <v>60</v>
@@ -1882,23 +1882,23 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J11" t="n">
         <v>2.72</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>3.5</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="Q11" t="n">
         <v>2.12</v>
@@ -2029,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.26</v>
+        <v>2.64</v>
       </c>
       <c r="K12" t="n">
         <v>5.2</v>
@@ -2143,28 +2143,28 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>CSD Rangers</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Deportes Recoleta</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.18</v>
+        <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>1.49</v>
+        <v>1.04</v>
       </c>
       <c r="I13" t="n">
         <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>1.49</v>
+        <v>2.92</v>
       </c>
       <c r="K13" t="n">
         <v>1000</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2278,28 +2278,28 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CSD Rangers</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Deportes Recoleta</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>1.49</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="J14" t="n">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
       <c r="K14" t="n">
         <v>1000</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.01</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -946,7 +946,7 @@
         <v>6.2</v>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>4.2</v>
@@ -955,100 +955,100 @@
         <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Kerry FC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.95</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>7.6</v>
+        <v>2.94</v>
       </c>
       <c r="H5" t="n">
-        <v>1.7</v>
+        <v>2.68</v>
       </c>
       <c r="I5" t="n">
-        <v>1.83</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.97</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.67</v>
+        <v>4.1</v>
       </c>
       <c r="G6" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="I6" t="n">
-        <v>9.4</v>
+        <v>1.81</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.97</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="H7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.06</v>
       </c>
-      <c r="I7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Atletico FC Cali</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.64</v>
+        <v>1.56</v>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
-        <v>2.12</v>
+        <v>5.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.35</v>
+        <v>10.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.79</v>
+        <v>1.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Atletico FC Cali</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>2.64</v>
       </c>
       <c r="G9" t="n">
-        <v>2.26</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>4.3</v>
+        <v>2.12</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="J9" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="K9" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.41</v>
+        <v>1.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.15</v>
+        <v>2.02</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.74</v>
+        <v>2.18</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2.26</v>
       </c>
       <c r="H10" t="n">
-        <v>2.88</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="J10" t="n">
         <v>2.98</v>
       </c>
       <c r="K10" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P11" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,31 +2008,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.32</v>
+        <v>2.68</v>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="J12" t="n">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CSD Rangers</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>2.66</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.92</v>
+        <v>2.64</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.63</v>
+        <v>1.39</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2278,120 +2278,255 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>CSD Rangers</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chilean Primera B</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>San Luis</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Deportes Recoleta</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="F15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J15" t="n">
         <v>2.74</v>
       </c>
-      <c r="K14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="K15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>1.53</v>
       </c>
-      <c r="Q14" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="Q15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>2.38</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>2.96</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.26</v>
+        <v>1.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.34</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="S2" t="n">
-        <v>1.34</v>
+        <v>1.75</v>
       </c>
       <c r="T2" t="n">
         <v>1.03</v>
@@ -715,10 +715,10 @@
         <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="J3" t="n">
         <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>5.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,34 +826,34 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
         <v>1.94</v>
       </c>
       <c r="R3" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="S3" t="n">
         <v>1.96</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -955,13 +955,13 @@
         <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -973,7 +973,7 @@
         <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
         <v>3.25</v>
@@ -991,10 +991,10 @@
         <v>2.52</v>
       </c>
       <c r="X4" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Z4" t="n">
         <v>60</v>
@@ -1009,19 +1009,19 @@
         <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
         <v>120</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
         <v>110</v>
@@ -1033,7 +1033,7 @@
         <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
         <v>160</v>
@@ -1075,7 +1075,7 @@
         <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="H5" t="n">
         <v>2.68</v>
@@ -1105,7 +1105,7 @@
         <v>1.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="R5" t="n">
         <v>1.29</v>
@@ -1114,16 +1114,16 @@
         <v>2.78</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V5" t="n">
         <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>7.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="I6" t="n">
         <v>1.81</v>
@@ -1222,37 +1222,37 @@
         <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
         <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V6" t="n">
         <v>1.01</v>
@@ -1396,55 +1396,55 @@
         <v>2.16</v>
       </c>
       <c r="X7" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
         <v>150</v>
       </c>
       <c r="AB7" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
         <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
         <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
         <v>100</v>
@@ -1492,97 +1492,97 @@
         <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1615,10 +1615,10 @@
         <v>2.64</v>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H9" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I9" t="n">
         <v>3.35</v>
@@ -1630,16 +1630,16 @@
         <v>4.2</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
         <v>1.79</v>
@@ -1648,76 +1648,76 @@
         <v>2.02</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1756,25 +1756,25 @@
         <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J10" t="n">
         <v>2.98</v>
       </c>
       <c r="K10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="P10" t="n">
         <v>1.41</v>
@@ -1783,76 +1783,76 @@
         <v>3.1</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H11" t="n">
         <v>2.92</v>
@@ -1900,7 +1900,7 @@
         <v>3.35</v>
       </c>
       <c r="L11" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -1921,7 +1921,7 @@
         <v>1.19</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="T11" t="n">
         <v>2.02</v>
@@ -1933,7 +1933,7 @@
         <v>1.44</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X11" t="n">
         <v>11</v>
@@ -2026,103 +2026,103 @@
         <v>2.88</v>
       </c>
       <c r="I12" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
         <v>3.5</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
         <v>1.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H13" t="n">
         <v>2.66</v>
@@ -2167,97 +2167,97 @@
         <v>2.64</v>
       </c>
       <c r="K13" t="n">
-        <v>5.2</v>
+        <v>980</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q13" t="n">
         <v>2.38</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="G14" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H14" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
         <v>4.5</v>
@@ -2302,97 +2302,97 @@
         <v>2.92</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
         <v>1.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2428,7 +2428,7 @@
         <v>3.35</v>
       </c>
       <c r="H15" t="n">
-        <v>1.42</v>
+        <v>2.56</v>
       </c>
       <c r="I15" t="n">
         <v>4.6</v>
@@ -2437,19 +2437,19 @@
         <v>2.74</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P15" t="n">
         <v>1.53</v>
@@ -2458,76 +2458,76 @@
         <v>2.06</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I2" t="n">
         <v>3.35</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J2" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S2" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="T2" t="n">
         <v>1.03</v>
@@ -715,10 +715,10 @@
         <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W2" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -805,7 +805,7 @@
         <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -853,7 +853,7 @@
         <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H4" t="n">
         <v>6.2</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
         <v>4.2</v>
@@ -970,10 +970,10 @@
         <v>1.99</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
         <v>3.25</v>
@@ -988,7 +988,7 @@
         <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
@@ -997,7 +997,7 @@
         <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
         <v>230</v>
@@ -1027,10 +1027,10 @@
         <v>110</v>
       </c>
       <c r="AJ4" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
         <v>980</v>
@@ -1039,7 +1039,7 @@
         <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO4" t="n">
         <v>150</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="G6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H6" t="n">
         <v>1.69</v>
       </c>
       <c r="I6" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>4.1</v>
@@ -1231,43 +1231,43 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>1.11</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T6" t="n">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
-        <v>1.03</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1276,10 +1276,10 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1297,22 +1297,22 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -1345,16 +1345,16 @@
         <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
         <v>4.3</v>
@@ -1378,13 +1378,13 @@
         <v>1.84</v>
       </c>
       <c r="R7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
         <v>2.06</v>
@@ -1393,10 +1393,10 @@
         <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
         <v>980</v>
@@ -1405,7 +1405,7 @@
         <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB7" t="n">
         <v>980</v>
@@ -1441,13 +1441,13 @@
         <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
         <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>1.56</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H8" t="n">
         <v>5.7</v>
@@ -1489,10 +1489,10 @@
         <v>10.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,22 +1501,22 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="O8" t="n">
         <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="R8" t="n">
         <v>1.09</v>
       </c>
       <c r="S8" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="T8" t="n">
         <v>1.03</v>
@@ -1528,7 +1528,7 @@
         <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.64</v>
+        <v>2.22</v>
       </c>
       <c r="G9" t="n">
         <v>3.35</v>
       </c>
       <c r="H9" t="n">
-        <v>2.14</v>
+        <v>2.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
         <v>2.86</v>
@@ -1636,31 +1636,31 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
         <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>2.96</v>
+        <v>2.04</v>
       </c>
       <c r="T9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U9" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V9" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W9" t="n">
         <v>1.42</v>
@@ -1768,16 +1768,16 @@
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N10" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="O10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="P10" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="Q10" t="n">
         <v>3.1</v>
@@ -1792,7 +1792,7 @@
         <v>2.48</v>
       </c>
       <c r="U10" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="V10" t="n">
         <v>1.27</v>
@@ -1804,25 +1804,25 @@
         <v>7</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z10" t="n">
         <v>30</v>
       </c>
       <c r="AA10" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AC10" t="n">
         <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF10" t="n">
         <v>11.5</v>
@@ -1831,28 +1831,28 @@
         <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL10" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="AN10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO10" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
@@ -1900,13 +1900,13 @@
         <v>3.35</v>
       </c>
       <c r="L11" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.52</v>
@@ -1972,7 +1972,7 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
         <v>48</v>
@@ -2023,10 +2023,10 @@
         <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="I12" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
         <v>3.05</v>
@@ -2041,7 +2041,7 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O12" t="n">
         <v>1.01</v>
@@ -2065,7 +2065,7 @@
         <v>1.03</v>
       </c>
       <c r="V12" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W12" t="n">
         <v>1.5</v>
@@ -2164,7 +2164,7 @@
         <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="K13" t="n">
         <v>980</v>
@@ -2287,34 +2287,34 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="G14" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K14" t="n">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>1.63</v>
+        <v>2.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
         <v>1.63</v>
@@ -2323,22 +2323,22 @@
         <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="S14" t="n">
-        <v>1.93</v>
+        <v>3.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="V14" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2428,16 +2428,16 @@
         <v>3.35</v>
       </c>
       <c r="H15" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="K15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2458,7 +2458,7 @@
         <v>2.06</v>
       </c>
       <c r="R15" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="S15" t="n">
         <v>2.06</v>
@@ -2470,7 +2470,7 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W15" t="n">
         <v>1.42</v>
@@ -2527,6 +2527,546 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Ferroviaria</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="X17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Boyaca Chico</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="X18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Nicaragua</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>950</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO19" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I2" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="J2" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="K2" t="n">
         <v>3.7</v>
       </c>
       <c r="L2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.34</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>1.8</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.68</v>
-      </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.89</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.03</v>
+        <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         <v>980</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>5.6</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
         <v>1.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="T3" t="n">
         <v>1.03</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G4" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H4" t="n">
         <v>6.2</v>
@@ -958,25 +958,25 @@
         <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
         <v>1.91</v>
@@ -988,13 +988,13 @@
         <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="n">
         <v>55</v>
@@ -1009,7 +1009,7 @@
         <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>120</v>
@@ -1030,10 +1030,10 @@
         <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
         <v>160</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="G5" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="H5" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>6.4</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" t="n">
         <v>1.77</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S5" t="n">
-        <v>2.78</v>
+        <v>1.77</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1120,10 +1120,10 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
         <v>7.6</v>
@@ -1216,10 +1216,10 @@
         <v>1.69</v>
       </c>
       <c r="I6" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
         <v>4.1</v>
@@ -1231,31 +1231,31 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
         <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="W6" t="n">
         <v>1.15</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1306,7 +1306,7 @@
         <v>120</v>
       </c>
       <c r="AM6" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
@@ -1345,16 +1345,16 @@
         <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
         <v>4.3</v>
@@ -1363,7 +1363,7 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
         <v>3.95</v>
@@ -1384,7 +1384,7 @@
         <v>3.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
         <v>2.06</v>
@@ -1393,10 +1393,10 @@
         <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
         <v>980</v>
@@ -1480,7 +1480,7 @@
         <v>1.56</v>
       </c>
       <c r="G8" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="H8" t="n">
         <v>5.7</v>
@@ -1501,22 +1501,22 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="O8" t="n">
         <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
         <v>1.09</v>
       </c>
       <c r="S8" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="T8" t="n">
         <v>1.03</v>
@@ -1528,7 +1528,7 @@
         <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.22</v>
+        <v>2.66</v>
       </c>
       <c r="G9" t="n">
         <v>3.35</v>
       </c>
       <c r="H9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="I9" t="n">
         <v>3.2</v>
@@ -1630,40 +1630,40 @@
         <v>4.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>1.76</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>2.04</v>
+        <v>3.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="V9" t="n">
         <v>1.45</v>
       </c>
       <c r="W9" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X9" t="n">
         <v>980</v>
@@ -1681,7 +1681,7 @@
         <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G10" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J10" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="K10" t="n">
         <v>3.05</v>
@@ -1768,19 +1768,19 @@
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N10" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="O10" t="n">
         <v>1.71</v>
       </c>
       <c r="P10" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R10" t="n">
         <v>1.13</v>
@@ -1789,16 +1789,16 @@
         <v>7.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="V10" t="n">
         <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X10" t="n">
         <v>7</v>
@@ -1810,19 +1810,19 @@
         <v>30</v>
       </c>
       <c r="AA10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB10" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AC10" t="n">
         <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="n">
         <v>11.5</v>
@@ -1831,28 +1831,28 @@
         <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="n">
         <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AM10" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="AN10" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AO10" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
@@ -1897,16 +1897,16 @@
         <v>2.98</v>
       </c>
       <c r="K11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O11" t="n">
         <v>1.52</v>
@@ -1960,7 +1960,7 @@
         <v>48</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
         <v>14</v>
@@ -1975,13 +1975,13 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
@@ -2020,10 +2020,10 @@
         <v>2.68</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H12" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="n">
         <v>3.25</v>
@@ -2038,91 +2038,91 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>1.59</v>
+        <v>2.94</v>
       </c>
       <c r="O12" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P12" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="R12" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.03</v>
+        <v>1.87</v>
       </c>
       <c r="U12" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
         <v>1.44</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -2152,100 +2152,100 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="G13" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="H13" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="K13" t="n">
-        <v>980</v>
+        <v>3.25</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="P13" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="R13" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>2.38</v>
+        <v>4.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="U13" t="n">
-        <v>1.03</v>
+        <v>1.76</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="W13" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2290,7 +2290,7 @@
         <v>2.08</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
         <v>3.15</v>
@@ -2332,13 +2332,13 @@
         <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V14" t="n">
         <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="G15" t="n">
         <v>3.35</v>
@@ -2431,13 +2431,13 @@
         <v>2.58</v>
       </c>
       <c r="I15" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="J15" t="n">
         <v>2.7</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2470,7 +2470,7 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="W15" t="n">
         <v>1.42</v>
@@ -2560,61 +2560,61 @@
         <v>1.82</v>
       </c>
       <c r="G16" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="H16" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="I16" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.45</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>1.04</v>
+        <v>2.88</v>
       </c>
       <c r="O16" t="n">
         <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S16" t="n">
-        <v>1.37</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V16" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="W16" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="X16" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="n">
         <v>42</v>
@@ -2623,10 +2623,10 @@
         <v>150</v>
       </c>
       <c r="AB16" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
         <v>23</v>
@@ -2635,31 +2635,31 @@
         <v>85</v>
       </c>
       <c r="AF16" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
         <v>100</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM16" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AO16" t="n">
         <v>110</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G17" t="n">
         <v>1.73</v>
       </c>
       <c r="H17" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I17" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
         <v>1.43</v>
@@ -2716,28 +2716,28 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O17" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R17" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S17" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="T17" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U17" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="V17" t="n">
         <v>1.16</v>
@@ -2746,7 +2746,7 @@
         <v>2.36</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
         <v>1000</v>
@@ -2755,10 +2755,10 @@
         <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AC17" t="n">
         <v>9</v>
@@ -2767,7 +2767,7 @@
         <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="n">
         <v>9.6</v>
@@ -2776,10 +2776,10 @@
         <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ17" t="n">
         <v>17</v>
@@ -2788,10 +2788,10 @@
         <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM17" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="n">
         <v>12.5</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="G18" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="H18" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="I18" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
         <v>3.7</v>
@@ -2848,37 +2848,37 @@
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="O18" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P18" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="R18" t="n">
         <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T18" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="U18" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W18" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="X18" t="n">
         <v>12</v>
@@ -2929,7 +2929,7 @@
         <v>230</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,58 +2962,58 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I19" t="n">
+        <v>55</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>110</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M19" t="n">
         <v>1.04</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>950</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N19" t="n">
-        <v>1.03</v>
+        <v>3.45</v>
       </c>
       <c r="O19" t="n">
         <v>1.24</v>
       </c>
       <c r="P19" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="S19" t="n">
-        <v>1.5</v>
+        <v>2.78</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W19" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="I2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="K2" t="n">
         <v>3.7</v>
@@ -697,10 +697,10 @@
         <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
         <v>1.3</v>
@@ -709,22 +709,22 @@
         <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
         <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W2" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
         <v>23</v>
@@ -733,7 +733,7 @@
         <v>55</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
         <v>9.199999999999999</v>
@@ -742,25 +742,25 @@
         <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG2" t="n">
         <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL2" t="n">
         <v>60</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO2" t="n">
         <v>38</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.14</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,34 +826,34 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.67</v>
+        <v>1.02</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.67</v>
+        <v>1.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.34</v>
       </c>
       <c r="R3" t="n">
         <v>1.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.92</v>
+        <v>1.34</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.58</v>
+        <v>1.77</v>
       </c>
       <c r="G4" t="n">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="H4" t="n">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.85</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.58</v>
+        <v>2.06</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA4" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
         <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.4</v>
+        <v>18.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kerry FC</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.18</v>
+        <v>1.58</v>
       </c>
       <c r="G5" t="n">
-        <v>2.78</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>2.7</v>
+        <v>6.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="X5" t="n">
         <v>980</v>
       </c>
-      <c r="L5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,76 +1198,76 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Kerry FC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>2.18</v>
       </c>
       <c r="G6" t="n">
-        <v>7.6</v>
+        <v>2.78</v>
       </c>
       <c r="H6" t="n">
-        <v>1.69</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>1.82</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>1.81</v>
       </c>
       <c r="O6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.37</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.04</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.15</v>
+        <v>1.56</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1276,10 +1276,10 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1297,28 +1297,28 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>1.86</v>
+        <v>7.6</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>1.69</v>
       </c>
       <c r="I7" t="n">
-        <v>6.2</v>
+        <v>1.82</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.02</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.8</v>
-      </c>
       <c r="U7" t="n">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.21</v>
+        <v>2.04</v>
       </c>
       <c r="W7" t="n">
-        <v>2.16</v>
+        <v>1.15</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>220</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AN7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="G8" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="H8" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>10.5</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>1.11</v>
+        <v>3.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.07</v>
+        <v>2.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>2.42</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.03</v>
+        <v>1.8</v>
       </c>
       <c r="U8" t="n">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="W8" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1603,70 +1603,70 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Atletico FC Cali</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.66</v>
+        <v>1.56</v>
       </c>
       <c r="G9" t="n">
-        <v>3.35</v>
+        <v>1.94</v>
       </c>
       <c r="H9" t="n">
-        <v>2.5</v>
+        <v>5.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>10.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P9" t="n">
         <v>1.07</v>
       </c>
-      <c r="N9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.78</v>
-      </c>
       <c r="Q9" t="n">
-        <v>1.89</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="S9" t="n">
-        <v>3.3</v>
+        <v>2.42</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.03</v>
       </c>
       <c r="U9" t="n">
-        <v>1.88</v>
+        <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.44</v>
+        <v>2.06</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Atletico FC Cali</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.22</v>
+        <v>2.66</v>
       </c>
       <c r="G10" t="n">
-        <v>2.28</v>
+        <v>3.35</v>
       </c>
       <c r="H10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.2</v>
       </c>
-      <c r="I10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.05</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>2.22</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.71</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.15</v>
+        <v>1.89</v>
       </c>
       <c r="R10" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>7.4</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="U10" t="n">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="V10" t="n">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="W10" t="n">
-        <v>1.78</v>
+        <v>1.42</v>
       </c>
       <c r="X10" t="n">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>2.24</v>
       </c>
       <c r="G11" t="n">
-        <v>2.96</v>
+        <v>2.28</v>
       </c>
       <c r="H11" t="n">
-        <v>2.92</v>
+        <v>4.4</v>
       </c>
       <c r="I11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q11" t="n">
         <v>3.25</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R11" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="S11" t="n">
-        <v>5.2</v>
+        <v>7.6</v>
       </c>
       <c r="T11" t="n">
-        <v>2.02</v>
+        <v>2.56</v>
       </c>
       <c r="U11" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="V11" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51</v>
+        <v>1.78</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>360</v>
+      </c>
+      <c r="AN11" t="n">
         <v>46</v>
       </c>
-      <c r="AL11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO11" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
         <v>2.96</v>
       </c>
       <c r="H12" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I12" t="n">
         <v>3.25</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.94</v>
+        <v>2.62</v>
       </c>
       <c r="O12" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="P12" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
         <v>1.44</v>
@@ -2071,64 +2071,64 @@
         <v>1.51</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z12" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
         <v>48</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO12" t="n">
         <v>60</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="G13" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.05</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.9</v>
-      </c>
       <c r="J13" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>2.5</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="P13" t="n">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.6</v>
+        <v>2.16</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>4.7</v>
+        <v>3.55</v>
       </c>
       <c r="T13" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="U13" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="W13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X13" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
         <v>65</v>
       </c>
-      <c r="AF13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,114 +2273,114 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CSD Rangers</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.08</v>
+        <v>2.56</v>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="P14" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>2.6</v>
       </c>
       <c r="R14" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="U14" t="n">
-        <v>1.94</v>
+        <v>1.76</v>
       </c>
       <c r="V14" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="W14" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2413,67 +2413,67 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>CSD Rangers</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Deportes Recoleta</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="G15" t="n">
-        <v>3.35</v>
+        <v>2.38</v>
       </c>
       <c r="H15" t="n">
-        <v>2.58</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>1.53</v>
+        <v>2.82</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="R15" t="n">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="S15" t="n">
-        <v>2.06</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="V15" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>1.42</v>
+        <v>1.72</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Deportes Recoleta</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.82</v>
+        <v>2.54</v>
       </c>
       <c r="G16" t="n">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="H16" t="n">
-        <v>5.2</v>
+        <v>2.86</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>2.72</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="O16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.36</v>
       </c>
-      <c r="P16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.21</v>
-      </c>
       <c r="W16" t="n">
-        <v>2.16</v>
+        <v>1.44</v>
       </c>
       <c r="X16" t="n">
         <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AA16" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AF16" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
         <v>44</v>
       </c>
-      <c r="AM16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>14</v>
-      </c>
       <c r="AO16" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,96 +2678,96 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="G17" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="H17" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.35</v>
+        <v>2.96</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="n">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="Q17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T17" t="n">
         <v>2.06</v>
       </c>
-      <c r="R17" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.02</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="V17" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W17" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA17" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AF17" t="n">
         <v>9.6</v>
@@ -2776,34 +2776,34 @@
         <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,118 +2818,118 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Boyaca Chico</t>
+          <t>Ferroviaria</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="G18" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="H18" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="I18" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S18" t="n">
         <v>3.7</v>
       </c>
-      <c r="L18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.7</v>
-      </c>
       <c r="T18" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="V18" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM18" t="n">
         <v>190</v>
       </c>
-      <c r="AB18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>230</v>
-      </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2938,135 +2938,270 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Boyaca Chico</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>2025-10-13</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>23:00:00</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Nicaragua</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="F20" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.09</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>55</v>
       </c>
-      <c r="J19" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>110</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="J20" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L20" t="n">
         <v>1.32</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M20" t="n">
         <v>1.04</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N20" t="n">
         <v>3.45</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V19" t="n">
+      <c r="O20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.02</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W20" t="n">
         <v>5.5</v>
       </c>
-      <c r="X19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO19" t="n">
+      <c r="X20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
@@ -670,19 +670,19 @@
         <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="H2" t="n">
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="I2" t="n">
         <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
         <v>1.42</v>
@@ -718,7 +718,7 @@
         <v>1.48</v>
       </c>
       <c r="W2" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X2" t="n">
         <v>15.5</v>
@@ -733,7 +733,7 @@
         <v>55</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
         <v>9.199999999999999</v>
@@ -814,7 +814,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
@@ -844,10 +844,10 @@
         <v>1.34</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G4" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H4" t="n">
         <v>4.9</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
@@ -961,40 +961,40 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="T4" t="n">
         <v>1.94</v>
       </c>
       <c r="U4" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
         <v>2.06</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="n">
         <v>50</v>
@@ -1006,22 +1006,22 @@
         <v>9</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,16 +1075,16 @@
         <v>1.58</v>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H5" t="n">
         <v>6.2</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
         <v>4.6</v>
@@ -1111,7 +1111,7 @@
         <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T5" t="n">
         <v>1.91</v>
@@ -1123,16 +1123,16 @@
         <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X5" t="n">
         <v>980</v>
       </c>
       <c r="Y5" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AA5" t="n">
         <v>230</v>
@@ -1144,7 +1144,7 @@
         <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
         <v>120</v>
@@ -1165,10 +1165,10 @@
         <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
         <v>160</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="G6" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>980</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="G7" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="H7" t="n">
         <v>1.69</v>
       </c>
       <c r="I7" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
@@ -1390,25 +1390,25 @@
         <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="W7" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="X7" t="n">
         <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z7" t="n">
         <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
@@ -1417,7 +1417,7 @@
         <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="G9" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H9" t="n">
         <v>5.7</v>
       </c>
       <c r="I9" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1645,13 +1645,13 @@
         <v>1.07</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R9" t="n">
         <v>1.09</v>
       </c>
       <c r="S9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T9" t="n">
         <v>1.03</v>
@@ -1660,10 +1660,10 @@
         <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1753,13 +1753,13 @@
         <v>3.35</v>
       </c>
       <c r="H10" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J10" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="K10" t="n">
         <v>4.2</v>
@@ -1795,16 +1795,16 @@
         <v>1.88</v>
       </c>
       <c r="V10" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="W10" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1885,16 +1885,16 @@
         <v>2.24</v>
       </c>
       <c r="G11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
         <v>4.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J11" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="K11" t="n">
         <v>2.98</v>
@@ -1906,25 +1906,25 @@
         <v>1.18</v>
       </c>
       <c r="N11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="P11" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="R11" t="n">
         <v>1.12</v>
       </c>
       <c r="S11" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T11" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="U11" t="n">
         <v>1.56</v>
@@ -1933,28 +1933,28 @@
         <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X11" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
         <v>30</v>
       </c>
       <c r="AA11" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
         <v>110</v>
@@ -1975,16 +1975,16 @@
         <v>42</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="AN11" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO11" t="n">
         <v>220</v>
@@ -2020,13 +2020,13 @@
         <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H12" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
         <v>2.98</v>
@@ -2038,7 +2038,7 @@
         <v>1.57</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
         <v>2.62</v>
@@ -2065,7 +2065,7 @@
         <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W12" t="n">
         <v>1.51</v>
@@ -2095,22 +2095,22 @@
         <v>48</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H13" t="n">
         <v>2.78</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
         <v>3.5</v>
@@ -2173,7 +2173,7 @@
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
         <v>3.15</v>
@@ -2191,7 +2191,7 @@
         <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T13" t="n">
         <v>1.84</v>
@@ -2200,13 +2200,13 @@
         <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
         <v>1.5</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
         <v>12.5</v>
@@ -2239,7 +2239,7 @@
         <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
         <v>60</v>
@@ -2248,7 +2248,7 @@
         <v>44</v>
       </c>
       <c r="AL13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
         <v>140</v>
@@ -2257,7 +2257,7 @@
         <v>42</v>
       </c>
       <c r="AO13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -2299,7 +2299,7 @@
         <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K14" t="n">
         <v>3.25</v>
@@ -2335,7 +2335,7 @@
         <v>1.76</v>
       </c>
       <c r="V14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
         <v>1.53</v>
@@ -2344,22 +2344,22 @@
         <v>10.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
         <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC14" t="n">
         <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE14" t="n">
         <v>65</v>
@@ -2368,7 +2368,7 @@
         <v>19.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH14" t="n">
         <v>28</v>
@@ -2377,13 +2377,13 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK14" t="n">
         <v>50</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2425,13 +2425,13 @@
         <v>2.08</v>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="H15" t="n">
         <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
         <v>2.9</v>
@@ -2443,37 +2443,37 @@
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R15" t="n">
         <v>1.28</v>
       </c>
       <c r="S15" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T15" t="n">
         <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V15" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2560,16 +2560,16 @@
         <v>2.54</v>
       </c>
       <c r="G16" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="H16" t="n">
         <v>2.86</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J16" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K16" t="n">
         <v>3.5</v>
@@ -2581,40 +2581,40 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O16" t="n">
         <v>1.42</v>
       </c>
       <c r="P16" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="R16" t="n">
         <v>1.24</v>
       </c>
       <c r="S16" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U16" t="n">
         <v>1.9</v>
       </c>
       <c r="V16" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
         <v>25</v>
@@ -2650,10 +2650,10 @@
         <v>55</v>
       </c>
       <c r="AK16" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
@@ -2692,58 +2692,58 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.75</v>
       </c>
-      <c r="G17" t="n">
-        <v>1.78</v>
-      </c>
       <c r="H17" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I17" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="J17" t="n">
         <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M17" t="n">
         <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P17" t="n">
         <v>1.68</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
         <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="T17" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U17" t="n">
         <v>1.72</v>
       </c>
       <c r="V17" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W17" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="X17" t="n">
         <v>12</v>
@@ -2752,34 +2752,34 @@
         <v>19</v>
       </c>
       <c r="Z17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA17" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
         <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AG17" t="n">
         <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI17" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AJ17" t="n">
         <v>17.5</v>
@@ -2791,13 +2791,13 @@
         <v>55</v>
       </c>
       <c r="AM17" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO17" t="n">
         <v>180</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="18">
@@ -2830,13 +2830,13 @@
         <v>1.63</v>
       </c>
       <c r="G18" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H18" t="n">
         <v>5.9</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J18" t="n">
         <v>3.8</v>
@@ -2866,7 +2866,7 @@
         <v>1.31</v>
       </c>
       <c r="S18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T18" t="n">
         <v>2.02</v>
@@ -2875,61 +2875,61 @@
         <v>1.85</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X18" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA18" t="n">
         <v>240</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
         <v>130</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI18" t="n">
         <v>120</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
         <v>190</v>
       </c>
       <c r="AN18" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="G19" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H19" t="n">
         <v>5.2</v>
       </c>
       <c r="I19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J19" t="n">
         <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2989,19 +2989,19 @@
         <v>2.76</v>
       </c>
       <c r="O19" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P19" t="n">
         <v>1.59</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R19" t="n">
         <v>1.21</v>
       </c>
       <c r="S19" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="T19" t="n">
         <v>2.12</v>
@@ -3010,7 +3010,7 @@
         <v>1.72</v>
       </c>
       <c r="V19" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W19" t="n">
         <v>2.06</v>
@@ -3019,52 +3019,52 @@
         <v>12</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA19" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>23</v>
       </c>
-      <c r="AE19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>22</v>
-      </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AL19" t="n">
         <v>60</v>
       </c>
       <c r="AM19" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AN19" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3103,7 +3103,7 @@
         <v>1.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1.09</v>
+        <v>21</v>
       </c>
       <c r="I20" t="n">
         <v>55</v>
@@ -3121,28 +3121,28 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q20" t="n">
         <v>1.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S20" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="T20" t="n">
         <v>2.96</v>
       </c>
       <c r="U20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="V20" t="n">
         <v>1.02</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,28 +667,28 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G2" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H2" t="n">
         <v>2.68</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>3.3</v>
@@ -697,13 +697,13 @@
         <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
         <v>3.6</v>
@@ -715,10 +715,10 @@
         <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X2" t="n">
         <v>15.5</v>
@@ -733,7 +733,7 @@
         <v>55</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
         <v>9.199999999999999</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="Q3" t="n">
         <v>1.34</v>
       </c>
       <c r="R3" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T3" t="n">
         <v>1.03</v>
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.78</v>
+        <v>1.99</v>
       </c>
       <c r="G4" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="H4" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
         <v>3.15</v>
@@ -967,70 +967,70 @@
         <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R4" t="n">
         <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T4" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="X4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y4" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD4" t="n">
         <v>19</v>
       </c>
-      <c r="Z4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>23</v>
-      </c>
       <c r="AE4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG4" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>55</v>
@@ -1039,16 +1039,16 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,103 +1063,103 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.58</v>
+        <v>2.52</v>
       </c>
       <c r="G5" t="n">
-        <v>1.64</v>
+        <v>2.86</v>
       </c>
       <c r="H5" t="n">
-        <v>6.2</v>
+        <v>2.92</v>
       </c>
       <c r="I5" t="n">
-        <v>7.2</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.95</v>
+        <v>2.92</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>2.24</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="S5" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="V5" t="n">
-        <v>1.16</v>
+        <v>1.41</v>
       </c>
       <c r="W5" t="n">
-        <v>2.56</v>
+        <v>1.53</v>
       </c>
       <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z5" t="n">
         <v>980</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AA5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE5" t="n">
         <v>980</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AF5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
         <v>65</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>110</v>
       </c>
       <c r="AJ5" t="n">
         <v>980</v>
@@ -1168,22 +1168,22 @@
         <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
         <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kerry FC</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.06</v>
+        <v>1.58</v>
       </c>
       <c r="G6" t="n">
-        <v>2.74</v>
+        <v>1.62</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>6.6</v>
       </c>
       <c r="I6" t="n">
-        <v>5.4</v>
+        <v>7.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>1.81</v>
+        <v>3.95</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="R6" t="n">
-        <v>1.11</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>1.8</v>
+        <v>3.15</v>
       </c>
       <c r="T6" t="n">
-        <v>1.03</v>
+        <v>1.91</v>
       </c>
       <c r="U6" t="n">
-        <v>1.03</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>1.58</v>
+        <v>2.6</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,91 +1333,91 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Kerry FC</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.7</v>
+        <v>2.12</v>
       </c>
       <c r="G7" t="n">
-        <v>6.8</v>
+        <v>2.74</v>
       </c>
       <c r="H7" t="n">
-        <v>1.69</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>1.79</v>
+        <v>110</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>1.87</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="R7" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>3.85</v>
+        <v>1.81</v>
       </c>
       <c r="T7" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>2.26</v>
+        <v>1.26</v>
       </c>
       <c r="W7" t="n">
-        <v>1.18</v>
+        <v>1.58</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1432,28 +1432,28 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>5.6</v>
       </c>
       <c r="G8" t="n">
-        <v>1.84</v>
+        <v>6.6</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>6.2</v>
+        <v>1.79</v>
       </c>
       <c r="J8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S8" t="n">
         <v>3.85</v>
       </c>
-      <c r="K8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.1</v>
-      </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="V8" t="n">
-        <v>1.22</v>
+        <v>2.26</v>
       </c>
       <c r="W8" t="n">
-        <v>2.16</v>
+        <v>1.18</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>210</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="G9" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="H9" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="I9" t="n">
-        <v>9.4</v>
+        <v>5.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>1.11</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>1.07</v>
+        <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="S9" t="n">
-        <v>2.44</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.03</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -1750,25 +1750,25 @@
         <v>2.66</v>
       </c>
       <c r="G10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="J10" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
         <v>1.32</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
         <v>3.25</v>
@@ -1780,7 +1780,7 @@
         <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
         <v>1.3</v>
@@ -1828,7 +1828,7 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.24</v>
+        <v>1.59</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>1.94</v>
       </c>
       <c r="H11" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>9.4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.98</v>
+        <v>5.1</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.2</v>
+        <v>1.11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.35</v>
+        <v>2.44</v>
       </c>
       <c r="R11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.12</v>
       </c>
-      <c r="S11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.77</v>
+        <v>2.06</v>
       </c>
       <c r="X11" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.28</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J12" t="n">
         <v>2.88</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.98</v>
-      </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="L12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.57</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.81</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>6.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="AC12" t="n">
         <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AK12" t="n">
         <v>44</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,24 +2138,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="G13" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
         <v>2.78</v>
@@ -2164,106 +2164,106 @@
         <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>3.15</v>
+        <v>2.76</v>
       </c>
       <c r="O13" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="P13" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="R13" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="T13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.84</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
         <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AN13" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="J14" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>2.5</v>
+        <v>3.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.6</v>
+        <v>2.16</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S14" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="T14" t="n">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="W14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X14" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AF14" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AG14" t="n">
         <v>15.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AL14" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,123 +2408,123 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CSD Rangers</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.08</v>
+        <v>2.56</v>
       </c>
       <c r="G15" t="n">
-        <v>2.58</v>
+        <v>2.88</v>
       </c>
       <c r="H15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
         <v>2.9</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="P15" t="n">
-        <v>1.73</v>
+        <v>1.51</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>2.6</v>
       </c>
       <c r="R15" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="U15" t="n">
-        <v>1.94</v>
+        <v>1.76</v>
       </c>
       <c r="V15" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>CSD Rangers</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Deportes Recoleta</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.54</v>
+        <v>2.08</v>
       </c>
       <c r="G16" t="n">
-        <v>2.94</v>
+        <v>2.58</v>
       </c>
       <c r="H16" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="J16" t="n">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,94 +2581,94 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="P16" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="R16" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S16" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="W16" t="n">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
         <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Deportes Recoleta</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.63</v>
+        <v>2.54</v>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>2.98</v>
       </c>
       <c r="H17" t="n">
-        <v>6.2</v>
+        <v>2.86</v>
       </c>
       <c r="I17" t="n">
-        <v>7.6</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>2.72</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P17" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S17" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="T17" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="U17" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="W17" t="n">
-        <v>2.32</v>
+        <v>1.51</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>55</v>
       </c>
-      <c r="AA17" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO17" t="n">
         <v>55</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="G18" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.72</v>
       </c>
-      <c r="H18" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.85</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="n">
         <v>240</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>130</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
         <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="G19" t="n">
         <v>1.94</v>
@@ -3001,13 +3001,13 @@
         <v>1.21</v>
       </c>
       <c r="S19" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="T19" t="n">
         <v>2.12</v>
       </c>
       <c r="U19" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V19" t="n">
         <v>1.19</v>
@@ -3073,135 +3073,270 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Ferroviaria</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="X20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>2025-10-13</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>23:00:00</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Nicaragua</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F21" t="n">
         <v>1.15</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="G21" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H21" t="n">
         <v>21</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>55</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W21" t="n">
         <v>6.4</v>
       </c>
-      <c r="K20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL20" t="n">
+      <c r="X21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL21" t="n">
         <v>90</v>
       </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO20" t="n">
+      <c r="AM21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO21" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
@@ -667,40 +667,40 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G2" t="n">
         <v>2.96</v>
       </c>
       <c r="H2" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I2" t="n">
         <v>3.05</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
@@ -709,7 +709,7 @@
         <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
         <v>2.06</v>
@@ -742,10 +742,10 @@
         <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="n">
         <v>15.5</v>
@@ -814,7 +814,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -844,7 +844,7 @@
         <v>1.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
         <v>1.03</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="G4" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I4" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
         <v>1.46</v>
@@ -961,40 +961,40 @@
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U4" t="n">
         <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W4" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1006,16 +1006,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
         <v>11.5</v>
@@ -1027,10 +1027,10 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="n">
         <v>55</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1078,7 +1078,7 @@
         <v>2.86</v>
       </c>
       <c r="H5" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I5" t="n">
         <v>3.4</v>
@@ -1087,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,16 +1096,16 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="O5" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P5" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R5" t="n">
         <v>1.24</v>
@@ -1114,7 +1114,7 @@
         <v>4.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U5" t="n">
         <v>1.92</v>
@@ -1132,10 +1132,10 @@
         <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AA5" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="AB5" t="n">
         <v>9.4</v>
@@ -1147,7 +1147,7 @@
         <v>14.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AF5" t="n">
         <v>17.5</v>
@@ -1159,7 +1159,7 @@
         <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="AJ5" t="n">
         <v>980</v>
@@ -1168,7 +1168,7 @@
         <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AM5" t="n">
         <v>160</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="I6" t="n">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="J6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K6" t="n">
         <v>4.1</v>
       </c>
-      <c r="K6" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S6" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="X6" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM6" t="n">
         <v>120</v>
       </c>
-      <c r="AF6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AN6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO6" t="n">
         <v>95</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="G7" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>110</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>1.87</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="R7" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>1.81</v>
+        <v>3.65</v>
       </c>
       <c r="T7" t="n">
-        <v>1.03</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="W7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="G8" t="n">
         <v>6.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="I8" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.44</v>
@@ -1507,7 +1507,7 @@
         <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q8" t="n">
         <v>2.08</v>
@@ -1516,19 +1516,19 @@
         <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V8" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="W8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X8" t="n">
         <v>15.5</v>
@@ -1555,13 +1555,13 @@
         <v>24</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="n">
         <v>28</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
         <v>55</v>
@@ -1573,10 +1573,10 @@
         <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="AM8" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G9" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="H9" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
         <v>5.6</v>
@@ -1630,40 +1630,40 @@
         <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
         <v>1.84</v>
       </c>
       <c r="R9" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S9" t="n">
         <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
         <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X9" t="n">
         <v>20</v>
@@ -1678,46 +1678,46 @@
         <v>140</v>
       </c>
       <c r="AB9" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
         <v>980</v>
       </c>
       <c r="AE9" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
         <v>70</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>980</v>
       </c>
       <c r="AL9" t="n">
         <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO9" t="n">
-        <v>85</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H10" t="n">
         <v>2.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J10" t="n">
         <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
         <v>1.32</v>
@@ -1774,34 +1774,34 @@
         <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
         <v>9.199999999999999</v>
@@ -1831,7 +1831,7 @@
         <v>15.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1882,109 +1882,109 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G11" t="n">
-        <v>1.94</v>
+        <v>1.74</v>
       </c>
       <c r="H11" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>1.11</v>
+        <v>2.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="S11" t="n">
-        <v>2.44</v>
+        <v>5.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.03</v>
+        <v>2.36</v>
       </c>
       <c r="U11" t="n">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="V11" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W11" t="n">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G12" t="n">
         <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="K12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.18</v>
@@ -2044,7 +2044,7 @@
         <v>2.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="P12" t="n">
         <v>1.37</v>
@@ -2053,7 +2053,7 @@
         <v>3.35</v>
       </c>
       <c r="R12" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S12" t="n">
         <v>8.199999999999999</v>
@@ -2062,10 +2062,10 @@
         <v>2.56</v>
       </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W12" t="n">
         <v>1.71</v>
@@ -2074,25 +2074,25 @@
         <v>6.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z12" t="n">
         <v>28</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB12" t="n">
         <v>6.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE12" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="n">
         <v>12</v>
@@ -2104,22 +2104,22 @@
         <v>75</v>
       </c>
       <c r="AI12" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AJ12" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AL12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM12" t="n">
         <v>400</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO12" t="n">
         <v>190</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G13" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H13" t="n">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
@@ -2167,10 +2167,10 @@
         <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M13" t="n">
         <v>1.11</v>
@@ -2179,7 +2179,7 @@
         <v>2.76</v>
       </c>
       <c r="O13" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P13" t="n">
         <v>1.6</v>
@@ -2191,19 +2191,19 @@
         <v>1.21</v>
       </c>
       <c r="S13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V13" t="n">
         <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="X13" t="n">
         <v>9.800000000000001</v>
@@ -2218,7 +2218,7 @@
         <v>55</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
@@ -2227,7 +2227,7 @@
         <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF13" t="n">
         <v>20</v>
@@ -2239,25 +2239,25 @@
         <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM13" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO13" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="G14" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="J14" t="n">
         <v>3.15</v>
@@ -2311,19 +2311,19 @@
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S14" t="n">
         <v>3.9</v>
@@ -2335,46 +2335,46 @@
         <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="W14" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X14" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="AB14" t="n">
         <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AJ14" t="n">
         <v>55</v>
@@ -2383,16 +2383,16 @@
         <v>42</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AM14" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
         <v>40</v>
       </c>
       <c r="AO14" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2431,7 +2431,7 @@
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J15" t="n">
         <v>2.9</v>
@@ -2461,7 +2461,7 @@
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T15" t="n">
         <v>2.06</v>
@@ -2509,7 +2509,7 @@
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AJ15" t="n">
         <v>48</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="G16" t="n">
-        <v>2.58</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.15</v>
       </c>
-      <c r="I16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.9</v>
-      </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,7 +2581,7 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="O16" t="n">
         <v>1.37</v>
@@ -2593,7 +2593,7 @@
         <v>1.94</v>
       </c>
       <c r="R16" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S16" t="n">
         <v>3.4</v>
@@ -2605,10 +2605,10 @@
         <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2626,7 +2626,7 @@
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2695,7 +2695,7 @@
         <v>2.54</v>
       </c>
       <c r="G17" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="H17" t="n">
         <v>2.86</v>
@@ -2704,10 +2704,10 @@
         <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2725,13 +2725,13 @@
         <v>1.65</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="R17" t="n">
         <v>1.24</v>
       </c>
       <c r="S17" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="T17" t="n">
         <v>1.88</v>
@@ -2743,19 +2743,19 @@
         <v>1.42</v>
       </c>
       <c r="W17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X17" t="n">
         <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
         <v>24</v>
       </c>
       <c r="AA17" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
         <v>11.5</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
         <v>55</v>
@@ -2827,40 +2827,40 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G18" t="n">
         <v>1.74</v>
       </c>
       <c r="H18" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="I18" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
         <v>1.39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R18" t="n">
         <v>1.25</v>
@@ -2869,55 +2869,55 @@
         <v>4.1</v>
       </c>
       <c r="T18" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U18" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W18" t="n">
         <v>2.34</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
         <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AB18" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AC18" t="n">
         <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF18" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
         <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK18" t="n">
         <v>21</v>
@@ -2926,13 +2926,13 @@
         <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="n">
         <v>14</v>
       </c>
       <c r="AO18" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="G19" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="H19" t="n">
         <v>5.2</v>
       </c>
       <c r="I19" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="J19" t="n">
         <v>3.3</v>
@@ -2983,7 +2983,7 @@
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
         <v>2.76</v>
@@ -3001,43 +3001,43 @@
         <v>1.21</v>
       </c>
       <c r="S19" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T19" t="n">
         <v>2.12</v>
       </c>
       <c r="U19" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V19" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W19" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="X19" t="n">
         <v>12</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
         <v>55</v>
       </c>
       <c r="AA19" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AB19" t="n">
         <v>7.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
         <v>27</v>
       </c>
       <c r="AE19" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF19" t="n">
         <v>12</v>
@@ -3055,16 +3055,16 @@
         <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3106,7 +3106,7 @@
         <v>6.2</v>
       </c>
       <c r="I20" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J20" t="n">
         <v>3.75</v>
@@ -3136,7 +3136,7 @@
         <v>1.3</v>
       </c>
       <c r="S20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T20" t="n">
         <v>2.06</v>
@@ -3187,7 +3187,7 @@
         <v>120</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="n">
         <v>22</v>
@@ -3262,7 +3262,7 @@
         <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q21" t="n">
         <v>1.64</v>
@@ -3277,7 +3277,7 @@
         <v>2.96</v>
       </c>
       <c r="U21" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V21" t="n">
         <v>1.02</v>
@@ -3304,7 +3304,7 @@
         <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="G2" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I2" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
         <v>3.6</v>
@@ -688,91 +688,91 @@
         <v>1.48</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI2" t="n">
         <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AK2" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO2" t="n">
         <v>36</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -835,13 +835,13 @@
         <v>1.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S3" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -937,40 +937,40 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
         <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
         <v>1.27</v>
@@ -985,10 +985,10 @@
         <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W4" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="X4" t="n">
         <v>11.5</v>
@@ -997,7 +997,7 @@
         <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="G5" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="H5" t="n">
         <v>2.94</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
         <v>1.24</v>
       </c>
       <c r="S5" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="W5" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X5" t="n">
         <v>11</v>
@@ -1135,7 +1135,7 @@
         <v>50</v>
       </c>
       <c r="AA5" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="AB5" t="n">
         <v>9.4</v>
@@ -1171,7 +1171,7 @@
         <v>200</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>980</v>
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I6" t="n">
         <v>5.6</v>
       </c>
-      <c r="I6" t="n">
-        <v>5.9</v>
-      </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K6" t="n">
         <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O6" t="n">
         <v>1.31</v>
@@ -1240,25 +1240,25 @@
         <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
         <v>2.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="X6" t="n">
         <v>15.5</v>
@@ -1273,7 +1273,7 @@
         <v>160</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
@@ -1282,7 +1282,7 @@
         <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="n">
         <v>10.5</v>
@@ -1294,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
         <v>36</v>
@@ -1309,7 +1309,7 @@
         <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO6" t="n">
         <v>95</v>
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U7" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="W7" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X7" t="n">
         <v>15</v>
@@ -1402,7 +1402,7 @@
         <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1429,7 +1429,7 @@
         <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
         <v>900</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="G8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="J8" t="n">
         <v>3.8</v>
@@ -1495,13 +1495,13 @@
         <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.37</v>
@@ -1510,25 +1510,25 @@
         <v>1.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T8" t="n">
         <v>2.02</v>
       </c>
       <c r="U8" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V8" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X8" t="n">
         <v>15.5</v>
@@ -1555,7 +1555,7 @@
         <v>24</v>
       </c>
       <c r="AF8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
         <v>28</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G9" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="I9" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -1642,28 +1642,28 @@
         <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S9" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W9" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="X9" t="n">
         <v>20</v>
@@ -1678,7 +1678,7 @@
         <v>140</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
         <v>9</v>
@@ -1693,10 +1693,10 @@
         <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>170</v>
@@ -1705,7 +1705,7 @@
         <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
         <v>980</v>
@@ -1714,7 +1714,7 @@
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
         <v>310</v>
@@ -1750,55 +1750,55 @@
         <v>2.84</v>
       </c>
       <c r="G10" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H10" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I10" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="K10" t="n">
         <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
         <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
         <v>1.79</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="W10" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X10" t="n">
         <v>27</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
         <v>9.199999999999999</v>
@@ -1831,13 +1831,13 @@
         <v>15.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK10" t="n">
         <v>1000</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G11" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
         <v>7</v>
@@ -1900,22 +1900,22 @@
         <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
         <v>2.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
         <v>1.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="R11" t="n">
         <v>1.19</v>
@@ -1924,10 +1924,10 @@
         <v>5.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U11" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V11" t="n">
         <v>1.13</v>
@@ -1936,7 +1936,7 @@
         <v>2.34</v>
       </c>
       <c r="X11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y11" t="n">
         <v>21</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AC11" t="n">
         <v>9.199999999999999</v>
@@ -1978,7 +1978,7 @@
         <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
@@ -2026,7 +2026,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J12" t="n">
         <v>2.94</v>
@@ -2044,19 +2044,19 @@
         <v>2.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="P12" t="n">
         <v>1.37</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="R12" t="n">
         <v>1.13</v>
       </c>
       <c r="S12" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="T12" t="n">
         <v>2.56</v>
@@ -2077,10 +2077,10 @@
         <v>9.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
         <v>6.2</v>
@@ -2089,16 +2089,16 @@
         <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF12" t="n">
         <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
         <v>75</v>
@@ -2107,7 +2107,7 @@
         <v>150</v>
       </c>
       <c r="AJ12" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK12" t="n">
         <v>100</v>
@@ -2119,7 +2119,7 @@
         <v>400</v>
       </c>
       <c r="AN12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
         <v>190</v>
@@ -2152,46 +2152,46 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
         <v>2.84</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.94</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M13" t="n">
         <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="O13" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P13" t="n">
         <v>1.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="R13" t="n">
         <v>1.21</v>
       </c>
       <c r="S13" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -2200,10 +2200,10 @@
         <v>1.87</v>
       </c>
       <c r="V13" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.5</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.52</v>
       </c>
       <c r="X13" t="n">
         <v>9.800000000000001</v>
@@ -2218,7 +2218,7 @@
         <v>55</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
@@ -2230,7 +2230,7 @@
         <v>190</v>
       </c>
       <c r="AF13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG13" t="n">
         <v>14</v>
@@ -2242,7 +2242,7 @@
         <v>160</v>
       </c>
       <c r="AJ13" t="n">
-        <v>280</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
         <v>190</v>
@@ -2287,46 +2287,46 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="G14" t="n">
         <v>3.1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="I14" t="n">
         <v>2.84</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
         <v>3.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T14" t="n">
         <v>1.83</v>
@@ -2338,10 +2338,10 @@
         <v>1.54</v>
       </c>
       <c r="W14" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
         <v>11.5</v>
@@ -2389,10 +2389,10 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,58 +2422,58 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G15" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J15" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="K15" t="n">
         <v>3.25</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N15" t="n">
         <v>2.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="P15" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U15" t="n">
         <v>1.76</v>
       </c>
       <c r="V15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W15" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="X15" t="n">
         <v>10.5</v>
@@ -2485,7 +2485,7 @@
         <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
         <v>9.4</v>
@@ -2509,22 +2509,22 @@
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AK15" t="n">
         <v>50</v>
       </c>
       <c r="AL15" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,58 +2557,58 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="H16" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
         <v>4.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="R16" t="n">
         <v>1.28</v>
       </c>
       <c r="S16" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T16" t="n">
         <v>1.83</v>
       </c>
       <c r="U16" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V16" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W16" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2626,7 +2626,7 @@
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2695,28 +2695,28 @@
         <v>2.54</v>
       </c>
       <c r="G17" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O17" t="n">
         <v>1.42</v>
@@ -2725,7 +2725,7 @@
         <v>1.65</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R17" t="n">
         <v>1.24</v>
@@ -2737,16 +2737,16 @@
         <v>1.88</v>
       </c>
       <c r="U17" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V17" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W17" t="n">
         <v>1.52</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y17" t="n">
         <v>11</v>
@@ -2773,10 +2773,10 @@
         <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
         <v>70</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="G18" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H18" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I18" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.47</v>
@@ -2851,88 +2851,88 @@
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P18" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="V18" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W18" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA18" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AB18" t="n">
         <v>7.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
         <v>24</v>
       </c>
       <c r="AE18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG18" t="n">
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AJ18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
         <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="n">
         <v>14</v>
       </c>
       <c r="AO18" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -2965,7 +2965,7 @@
         <v>1.86</v>
       </c>
       <c r="G19" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H19" t="n">
         <v>5.2</v>
@@ -2974,43 +2974,43 @@
         <v>5.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M19" t="n">
         <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="O19" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P19" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="R19" t="n">
         <v>1.21</v>
       </c>
       <c r="S19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T19" t="n">
         <v>2.12</v>
       </c>
       <c r="U19" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="V19" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W19" t="n">
         <v>2.02</v>
@@ -3022,7 +3022,7 @@
         <v>15</v>
       </c>
       <c r="Z19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA19" t="n">
         <v>200</v>
@@ -3034,7 +3034,7 @@
         <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>120</v>
@@ -3046,7 +3046,7 @@
         <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI19" t="n">
         <v>140</v>
@@ -3055,10 +3055,10 @@
         <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="n">
         <v>240</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G20" t="n">
         <v>1.69</v>
@@ -3109,34 +3109,34 @@
         <v>7.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K20" t="n">
         <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R20" t="n">
         <v>1.3</v>
       </c>
       <c r="S20" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T20" t="n">
         <v>2.06</v>
@@ -3145,7 +3145,7 @@
         <v>1.81</v>
       </c>
       <c r="V20" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W20" t="n">
         <v>2.44</v>
@@ -3157,16 +3157,16 @@
         <v>21</v>
       </c>
       <c r="Z20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>240</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD20" t="n">
         <v>29</v>
@@ -3181,7 +3181,7 @@
         <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
         <v>120</v>
@@ -3190,7 +3190,7 @@
         <v>20</v>
       </c>
       <c r="AK20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
         <v>55</v>
@@ -3199,7 +3199,7 @@
         <v>190</v>
       </c>
       <c r="AN20" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,58 +3232,58 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="G21" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="H21" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I21" t="n">
         <v>55</v>
       </c>
       <c r="J21" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="Q21" t="n">
         <v>1.64</v>
       </c>
       <c r="R21" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="S21" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="T21" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="U21" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="V21" t="n">
         <v>1.02</v>
       </c>
       <c r="W21" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3328,7 +3328,7 @@
         <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Japanese J League 3</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>02:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nagano Parceiro</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kamatamare Sanuki</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.74</v>
+        <v>2.48</v>
       </c>
       <c r="I2" t="n">
-        <v>2.92</v>
+        <v>2.64</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,78 +788,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>3.85</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="J3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2.18</v>
       </c>
-      <c r="K3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="R3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.29</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,43 +868,43 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.86</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>2.96</v>
       </c>
       <c r="I4" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
         <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
         <v>1.89</v>
       </c>
       <c r="U4" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>1.84</v>
+        <v>1.54</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF4" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>13</v>
       </c>
-      <c r="AG4" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.58</v>
+        <v>1.71</v>
       </c>
       <c r="G5" t="n">
-        <v>2.82</v>
+        <v>1.74</v>
       </c>
       <c r="H5" t="n">
-        <v>2.94</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>2.9</v>
+        <v>3.95</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.64</v>
+        <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.55</v>
+        <v>2.34</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF5" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Kerry FC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>1.77</v>
+        <v>2.56</v>
       </c>
       <c r="H6" t="n">
-        <v>5.3</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R6" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>2.28</v>
+        <v>1.64</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17.5</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>11.5</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kerry FC</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.4</v>
+        <v>5.9</v>
       </c>
       <c r="G7" t="n">
-        <v>2.56</v>
+        <v>6.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>1.69</v>
       </c>
       <c r="I7" t="n">
-        <v>3.45</v>
+        <v>1.73</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="T7" t="n">
-        <v>1.77</v>
+        <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>1.42</v>
+        <v>2.36</v>
       </c>
       <c r="W7" t="n">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="X7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>210</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>350</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO7" t="n">
         <v>15</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.8</v>
+        <v>1.74</v>
       </c>
       <c r="G8" t="n">
-        <v>6.4</v>
+        <v>1.79</v>
       </c>
       <c r="H8" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.75</v>
+        <v>5.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>2.32</v>
+        <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>1.19</v>
+        <v>2.28</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.800000000000001</v>
+        <v>29</v>
       </c>
       <c r="Z8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF8" t="n">
         <v>12</v>
       </c>
-      <c r="AA8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>60</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AJ8" t="n">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>350</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="G9" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="H9" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
       <c r="P9" t="n">
-        <v>2.02</v>
+        <v>1.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>2.54</v>
       </c>
       <c r="R9" t="n">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="S9" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>1.59</v>
       </c>
       <c r="V9" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="X9" t="n">
-        <v>20</v>
+        <v>9.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AA9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>5.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>9.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AO9" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="G10" t="n">
         <v>3.15</v>
       </c>
       <c r="H10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.45</v>
@@ -1783,25 +1783,25 @@
         <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T10" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W10" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X10" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1816,7 +1816,7 @@
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1828,7 +1828,7 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
         <v>60</v>
@@ -1837,7 +1837,7 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.61</v>
+        <v>2.36</v>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>2.44</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>9.6</v>
+        <v>4.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>2.96</v>
       </c>
       <c r="L11" t="n">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="N11" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="P11" t="n">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.56</v>
+        <v>3.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="S11" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="T11" t="n">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="U11" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="V11" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>2.34</v>
+        <v>1.7</v>
       </c>
       <c r="X11" t="n">
-        <v>9.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD11" t="n">
         <v>21</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AE11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>410</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO11" t="n">
         <v>170</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.34</v>
+        <v>2.92</v>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>2.98</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="M12" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2.2</v>
+        <v>2.84</v>
       </c>
       <c r="O12" t="n">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.5</v>
+        <v>2.56</v>
       </c>
       <c r="R12" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="S12" t="n">
-        <v>8</v>
+        <v>5.1</v>
       </c>
       <c r="T12" t="n">
-        <v>2.56</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="V12" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ12" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="AL12" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
         <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>2.84</v>
+        <v>3.45</v>
       </c>
       <c r="O13" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.56</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W13" t="n">
         <v>1.5</v>
       </c>
       <c r="X13" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="AF13" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
         <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AJ13" t="n">
         <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="AL13" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,118 +2278,118 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="H14" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.84</v>
+        <v>3.45</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
       <c r="O14" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="P14" t="n">
-        <v>1.79</v>
+        <v>1.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.14</v>
+        <v>2.64</v>
       </c>
       <c r="R14" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>3.95</v>
+        <v>5.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="V14" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="W14" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AA14" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE14" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
         <v>55</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,114 +2408,114 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>CSD Rangers</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="G15" t="n">
-        <v>2.96</v>
+        <v>2.24</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.86</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="M15" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.64</v>
+        <v>2.12</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="T15" t="n">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>1.76</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="W15" t="n">
-        <v>1.51</v>
+        <v>1.81</v>
       </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2548,109 +2548,109 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CSD Rangers</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Deportes Recoleta</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="G16" t="n">
-        <v>2.36</v>
+        <v>2.78</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="P16" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="R16" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="S16" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="W16" t="n">
-        <v>1.74</v>
+        <v>1.56</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL16" t="n">
         <v>1000</v>
@@ -2659,16 +2659,16 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Deportes Recoleta</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.54</v>
+        <v>1.85</v>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>1.93</v>
       </c>
       <c r="H17" t="n">
-        <v>2.88</v>
+        <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.35</v>
+        <v>5.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P17" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R17" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S17" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="V17" t="n">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="W17" t="n">
-        <v>1.52</v>
+        <v>2.06</v>
       </c>
       <c r="X17" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Z17" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC17" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>21</v>
       </c>
-      <c r="AG17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>55</v>
-      </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,99 +2813,99 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Ferroviaria</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="G18" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="H18" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="I18" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="Q18" t="n">
         <v>2.12</v>
       </c>
       <c r="R18" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T18" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U18" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="V18" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="X18" t="n">
         <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Z18" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AA18" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC18" t="n">
         <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AE18" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
         <v>11</v>
@@ -2914,25 +2914,25 @@
         <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2968,7 +2968,7 @@
         <v>1.97</v>
       </c>
       <c r="H19" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I19" t="n">
         <v>5.8</v>
@@ -2986,10 +2986,10 @@
         <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O19" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P19" t="n">
         <v>1.6</v>
@@ -3016,16 +3016,16 @@
         <v>2.02</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB19" t="n">
         <v>7.8</v>
@@ -3034,7 +3034,7 @@
         <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>120</v>
@@ -3043,7 +3043,7 @@
         <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
         <v>30</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,260 +3083,125 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.65</v>
+        <v>1.16</v>
       </c>
       <c r="G20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H20" t="n">
+        <v>26</v>
+      </c>
+      <c r="I20" t="n">
+        <v>46</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1.69</v>
       </c>
-      <c r="H20" t="n">
+      <c r="R20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W20" t="n">
         <v>6.2</v>
       </c>
-      <c r="I20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.44</v>
-      </c>
       <c r="X20" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AE20" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>6.6</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
         <v>20</v>
       </c>
-      <c r="AK20" t="n">
-        <v>21</v>
-      </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AM20" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>13.5</v>
+        <v>4.3</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-10-13</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Nicaragua</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="H21" t="n">
-        <v>25</v>
-      </c>
-      <c r="I21" t="n">
-        <v>55</v>
-      </c>
-      <c r="J21" t="n">
-        <v>8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W21" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO21" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="H2" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
         <v>3.75</v>
@@ -691,34 +691,34 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q2" t="n">
         <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="W2" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X2" t="n">
         <v>18</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="H3" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="K3" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
@@ -829,37 +829,37 @@
         <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
         <v>1.71</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>1.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,43 +868,43 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,46 +940,46 @@
         <v>2.62</v>
       </c>
       <c r="G4" t="n">
-        <v>2.86</v>
+        <v>3.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.96</v>
+        <v>2.48</v>
       </c>
       <c r="I4" t="n">
         <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
         <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R4" t="n">
         <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
         <v>1.98</v>
@@ -988,61 +988,61 @@
         <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.6</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
         <v>350</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
         <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5">
@@ -1072,73 +1072,73 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.71</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.74</v>
-      </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="U5" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W5" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AA5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5" t="n">
         <v>9</v>
@@ -1147,37 +1147,37 @@
         <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
         <v>10.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AJ5" t="n">
         <v>17.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL5" t="n">
         <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
         <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="G6" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H6" t="n">
         <v>3.25</v>
@@ -1219,100 +1219,100 @@
         <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>3.45</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S6" t="n">
         <v>3.7</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.6</v>
-      </c>
       <c r="T6" t="n">
-        <v>1.76</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>1.03</v>
       </c>
       <c r="V6" t="n">
         <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="I7" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
         <v>1.37</v>
       </c>
       <c r="P7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.81</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.84</v>
-      </c>
       <c r="V7" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="W7" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>22</v>
-      </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>40</v>
+        <v>17.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>220</v>
+      </c>
+      <c r="AK7" t="n">
         <v>130</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL7" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G8" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="H8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I8" t="n">
         <v>5.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
@@ -1507,31 +1507,31 @@
         <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R8" t="n">
         <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="V8" t="n">
         <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
         <v>29</v>
@@ -1540,25 +1540,25 @@
         <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
         <v>170</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH8" t="n">
         <v>19.5</v>
@@ -1570,7 +1570,7 @@
         <v>20</v>
       </c>
       <c r="AK8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL8" t="n">
         <v>980</v>
@@ -1579,7 +1579,7 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>600</v>
@@ -1612,109 +1612,109 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="G9" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="H9" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.56</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="O9" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="P9" t="n">
         <v>1.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="R9" t="n">
         <v>1.19</v>
       </c>
       <c r="S9" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="T9" t="n">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1.59</v>
+        <v>1.03</v>
       </c>
       <c r="V9" t="n">
         <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="X9" t="n">
-        <v>9.4</v>
+        <v>90</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,37 +1747,37 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="G10" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="I10" t="n">
-        <v>2.94</v>
+        <v>2.68</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.45</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q10" t="n">
         <v>2.1</v>
@@ -1786,22 +1786,22 @@
         <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>1.03</v>
       </c>
       <c r="V10" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1816,7 +1816,7 @@
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1828,10 +1828,10 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1891,10 +1891,10 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K11" t="n">
         <v>2.96</v>
@@ -1903,22 +1903,22 @@
         <v>1.76</v>
       </c>
       <c r="M11" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N11" t="n">
         <v>2.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="P11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q11" t="n">
         <v>3.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S11" t="n">
         <v>8</v>
@@ -1927,10 +1927,10 @@
         <v>2.58</v>
       </c>
       <c r="U11" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="V11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W11" t="n">
         <v>1.7</v>
@@ -1942,13 +1942,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA11" t="n">
         <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AC11" t="n">
         <v>7.2</v>
@@ -1957,31 +1957,31 @@
         <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG11" t="n">
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI11" t="n">
         <v>150</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AL11" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM11" t="n">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="AN11" t="n">
         <v>55</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="G12" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
         <v>3.2</v>
@@ -2038,7 +2038,7 @@
         <v>1.56</v>
       </c>
       <c r="M12" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
         <v>2.84</v>
@@ -2050,7 +2050,7 @@
         <v>1.59</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="R12" t="n">
         <v>1.21</v>
@@ -2059,67 +2059,67 @@
         <v>5.1</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AI12" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>900</v>
       </c>
       <c r="AK12" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,31 +2152,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="H13" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I13" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J13" t="n">
         <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.38</v>
@@ -2185,70 +2185,70 @@
         <v>1.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S13" t="n">
         <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U13" t="n">
         <v>2.02</v>
       </c>
       <c r="V13" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W13" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
@@ -2257,7 +2257,7 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
-        <v>2.96</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="K14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.6</v>
@@ -2320,67 +2320,67 @@
         <v>1.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S14" t="n">
-        <v>5.5</v>
+        <v>2.76</v>
       </c>
       <c r="T14" t="n">
-        <v>2.08</v>
+        <v>1.03</v>
       </c>
       <c r="U14" t="n">
-        <v>1.76</v>
+        <v>1.03</v>
       </c>
       <c r="V14" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="X14" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="AD14" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>170</v>
+        <v>900</v>
       </c>
       <c r="AK14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
         <v>4.2</v>
@@ -2437,43 +2437,43 @@
         <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
         <v>1.46</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="n">
         <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q15" t="n">
         <v>2.12</v>
       </c>
       <c r="R15" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
         <v>1.32</v>
       </c>
       <c r="W15" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2560,7 +2560,7 @@
         <v>2.62</v>
       </c>
       <c r="G16" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
@@ -2599,10 +2599,10 @@
         <v>4.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
         <v>1.44</v>
@@ -2611,46 +2611,46 @@
         <v>1.56</v>
       </c>
       <c r="X16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
         <v>1000</v>
@@ -2659,10 +2659,10 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="G17" t="n">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="H17" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L17" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="P17" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R17" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V17" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z17" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AA17" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AF17" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AG17" t="n">
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AJ17" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AK17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN17" t="n">
         <v>23</v>
       </c>
-      <c r="AL17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>17</v>
-      </c>
       <c r="AO17" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2830,34 +2830,34 @@
         <v>1.63</v>
       </c>
       <c r="G18" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H18" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
         <v>7.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K18" t="n">
         <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O18" t="n">
         <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q18" t="n">
         <v>2.12</v>
@@ -2869,67 +2869,67 @@
         <v>3.9</v>
       </c>
       <c r="T18" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
         <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X18" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
         <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="G19" t="n">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="H19" t="n">
         <v>5.1</v>
       </c>
       <c r="I19" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.54</v>
@@ -2986,85 +2986,85 @@
         <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="O19" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P19" t="n">
         <v>1.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R19" t="n">
         <v>1.21</v>
       </c>
       <c r="S19" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W19" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="X19" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3106,13 +3106,13 @@
         <v>26</v>
       </c>
       <c r="I20" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="J20" t="n">
         <v>7.6</v>
       </c>
       <c r="K20" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.32</v>
@@ -3127,28 +3127,28 @@
         <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
         <v>1.48</v>
       </c>
       <c r="S20" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="T20" t="n">
-        <v>2.84</v>
+        <v>1.03</v>
       </c>
       <c r="U20" t="n">
-        <v>1.43</v>
+        <v>1.03</v>
       </c>
       <c r="V20" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3163,7 +3163,7 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
         <v>1000</v>
@@ -3175,7 +3175,7 @@
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
         <v>1000</v>
@@ -3190,16 +3190,16 @@
         <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>2.6</v>
@@ -679,43 +679,43 @@
         <v>2.76</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>1.51</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC2" t="n">
         <v>42</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.28</v>
+        <v>2.56</v>
       </c>
       <c r="G3" t="n">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.48</v>
@@ -829,82 +829,82 @@
         <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R3" t="n">
         <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.06</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="V3" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="W3" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>44</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,100 +937,100 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G4" t="n">
-        <v>3.55</v>
+        <v>2.98</v>
       </c>
       <c r="H4" t="n">
-        <v>2.48</v>
+        <v>2.82</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.05</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
         <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W4" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="AB4" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>350</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>230</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AL4" t="n">
         <v>200</v>
@@ -1039,10 +1039,10 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AO4" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.7</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.71</v>
-      </c>
       <c r="H5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I5" t="n">
         <v>6.2</v>
@@ -1090,7 +1090,7 @@
         <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1099,7 +1099,7 @@
         <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
         <v>2.12</v>
@@ -1108,22 +1108,22 @@
         <v>1.86</v>
       </c>
       <c r="R5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V5" t="n">
         <v>1.19</v>
       </c>
       <c r="W5" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X5" t="n">
         <v>17</v>
@@ -1135,10 +1135,10 @@
         <v>48</v>
       </c>
       <c r="AA5" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC5" t="n">
         <v>9</v>
@@ -1147,7 +1147,7 @@
         <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AF5" t="n">
         <v>10.5</v>
@@ -1159,13 +1159,13 @@
         <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
         <v>34</v>
@@ -1174,10 +1174,10 @@
         <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="G6" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>2.86</v>
       </c>
       <c r="I6" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.05</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
-        <v>1.03</v>
+        <v>2.22</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="W6" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="G7" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="I7" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="J7" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="T7" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="U7" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="W7" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
         <v>7.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD7" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD7" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF7" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AJ7" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="AK7" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AL7" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="8">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="G8" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="H8" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="J8" t="n">
         <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1510,79 +1510,79 @@
         <v>2.12</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R8" t="n">
         <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="W8" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="n">
         <v>9.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>19.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>20</v>
       </c>
       <c r="AK8" t="n">
         <v>18</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
         <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -1612,64 +1612,64 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="G9" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
         <v>1.56</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O9" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="P9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
         <v>1.19</v>
       </c>
       <c r="S9" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="U9" t="n">
-        <v>1.03</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="X9" t="n">
-        <v>90</v>
+        <v>9.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,43 +1678,43 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="G10" t="n">
         <v>3.4</v>
@@ -1756,7 +1756,7 @@
         <v>2.42</v>
       </c>
       <c r="I10" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J10" t="n">
         <v>3.2</v>
@@ -1765,61 +1765,61 @@
         <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
         <v>3.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.05</v>
+        <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>1.03</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="W10" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X10" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1828,10 +1828,10 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G11" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -1903,16 +1903,16 @@
         <v>1.76</v>
       </c>
       <c r="M11" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="N11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O11" t="n">
         <v>1.79</v>
       </c>
       <c r="P11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q11" t="n">
         <v>3.5</v>
@@ -1921,13 +1921,13 @@
         <v>1.12</v>
       </c>
       <c r="S11" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T11" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
         <v>1.31</v>
@@ -1948,7 +1948,7 @@
         <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AC11" t="n">
         <v>7.2</v>
@@ -1957,7 +1957,7 @@
         <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF11" t="n">
         <v>12.5</v>
@@ -1966,22 +1966,22 @@
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ11" t="n">
         <v>38</v>
       </c>
       <c r="AK11" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AL11" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="AM11" t="n">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="AN11" t="n">
         <v>55</v>
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="H12" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="I12" t="n">
         <v>3.05</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L12" t="n">
         <v>1.56</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
         <v>2.84</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R12" t="n">
         <v>1.21</v>
       </c>
       <c r="S12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T12" t="n">
         <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V12" t="n">
         <v>1.48</v>
       </c>
       <c r="W12" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y12" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC12" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="G13" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="H13" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="I13" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="T13" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="U13" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W13" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO13" t="n">
         <v>26</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.6</v>
+        <v>2.98</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>2.4</v>
+        <v>2.68</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.6</v>
@@ -2311,7 +2311,7 @@
         <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="O14" t="n">
         <v>1.56</v>
@@ -2320,58 +2320,58 @@
         <v>1.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R14" t="n">
         <v>1.17</v>
       </c>
       <c r="S14" t="n">
-        <v>2.76</v>
+        <v>5.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="U14" t="n">
-        <v>1.03</v>
+        <v>1.75</v>
       </c>
       <c r="V14" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="W14" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2389,10 +2389,10 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -2413,103 +2413,103 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CSD Rangers</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Deportes Recoleta</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="G15" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
         <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L15" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.75</v>
       </c>
-      <c r="Q15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V15" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
@@ -2518,13 +2518,13 @@
         <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2548,67 +2548,67 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>CSD Rangers</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Deportes Recoleta</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.62</v>
+        <v>1.97</v>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>2.08</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="O16" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="P16" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="R16" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="S16" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="W16" t="n">
-        <v>1.56</v>
+        <v>1.92</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,109 +2692,109 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G17" t="n">
         <v>2.06</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.16</v>
-      </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="J17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.45</v>
       </c>
-      <c r="K17" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O17" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="P17" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S17" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W17" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA17" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
         <v>18.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG17" t="n">
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="G18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I18" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -2860,76 +2860,76 @@
         <v>1.83</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S18" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="G19" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="H19" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="I19" t="n">
         <v>6.2</v>
@@ -2977,82 +2977,82 @@
         <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L19" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M19" t="n">
         <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P19" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="R19" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V19" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W19" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK19" t="n">
         <v>1000</v>
@@ -3061,10 +3061,10 @@
         <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3100,19 +3100,19 @@
         <v>1.16</v>
       </c>
       <c r="G20" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="H20" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="J20" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.32</v>
@@ -3121,34 +3121,34 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R20" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S20" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T20" t="n">
-        <v>1.03</v>
+        <v>3.1</v>
       </c>
       <c r="U20" t="n">
-        <v>1.03</v>
+        <v>1.45</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W20" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3175,7 +3175,7 @@
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AG20" t="n">
         <v>1000</v>
@@ -3187,19 +3187,19 @@
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AK20" t="n">
         <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,75 +653,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1.21</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>2.76</v>
+        <v>110</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25</v>
+        <v>1.47</v>
       </c>
       <c r="O2" t="n">
-        <v>1.39</v>
+        <v>2.96</v>
       </c>
       <c r="P2" t="n">
-        <v>1.7</v>
+        <v>1.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.28</v>
+        <v>15.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>4.1</v>
+        <v>120</v>
       </c>
       <c r="T2" t="n">
-        <v>1.88</v>
+        <v>4.3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.26</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.51</v>
+        <v>5.4</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -733,34 +733,34 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>980</v>
+        <v>1.55</v>
       </c>
       <c r="AC2" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -793,118 +793,118 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.56</v>
+        <v>1.03</v>
       </c>
       <c r="G3" t="n">
-        <v>2.82</v>
+        <v>1.04</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.09</v>
       </c>
-      <c r="N3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.91</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.98</v>
+        <v>1.24</v>
       </c>
       <c r="V3" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.54</v>
+        <v>17.5</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>17.5</v>
+        <v>1.73</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>95</v>
+        <v>690</v>
       </c>
       <c r="AK3" t="n">
-        <v>70</v>
+        <v>990</v>
       </c>
       <c r="AL3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.66</v>
+        <v>1.23</v>
       </c>
       <c r="G4" t="n">
-        <v>2.98</v>
+        <v>1.24</v>
       </c>
       <c r="H4" t="n">
-        <v>2.82</v>
+        <v>36</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>42</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>2.06</v>
       </c>
       <c r="O4" t="n">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.17</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>6.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.02</v>
       </c>
       <c r="S4" t="n">
-        <v>4.4</v>
+        <v>40</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>3.7</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>1.34</v>
       </c>
       <c r="V4" t="n">
-        <v>1.47</v>
+        <v>1.02</v>
       </c>
       <c r="W4" t="n">
-        <v>1.51</v>
+        <v>5.1</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>2.06</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="AE4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AG4" t="n">
         <v>18.5</v>
       </c>
-      <c r="AG4" t="n">
-        <v>13</v>
-      </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="AI4" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AL4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
         <v>200</v>
       </c>
-      <c r="AM4" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>70</v>
-      </c>
       <c r="AO4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Kerry FC</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.68</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="P5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Z5" t="n">
         <v>6.2</v>
       </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>48</v>
-      </c>
       <c r="AA5" t="n">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>5.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>90</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.4</v>
+        <v>24</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AI5" t="n">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kerry FC</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>34</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="S6" t="n">
+        <v>15</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
         <v>2.66</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X6" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>12.5</v>
-      </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>4.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="AJ6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.6</v>
+        <v>1.88</v>
       </c>
       <c r="G7" t="n">
-        <v>8.199999999999999</v>
+        <v>1.92</v>
       </c>
       <c r="H7" t="n">
-        <v>1.53</v>
+        <v>5.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1.56</v>
+        <v>5.8</v>
       </c>
       <c r="J7" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AH7" t="n">
         <v>4.6</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>27</v>
-      </c>
       <c r="AI7" t="n">
-        <v>130</v>
+        <v>9.4</v>
       </c>
       <c r="AJ7" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>140</v>
+        <v>9.6</v>
       </c>
       <c r="AL7" t="n">
-        <v>140</v>
+        <v>8.4</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>16.5</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.4</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="G8" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>8.6</v>
       </c>
       <c r="I8" t="n">
-        <v>5.4</v>
+        <v>10.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.38</v>
+        <v>1.03</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>4.3</v>
+        <v>2.38</v>
       </c>
       <c r="O8" t="n">
-        <v>1.28</v>
+        <v>1.58</v>
       </c>
       <c r="P8" t="n">
-        <v>2.12</v>
+        <v>1.47</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.86</v>
+        <v>2.74</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="S8" t="n">
-        <v>3.1</v>
+        <v>6.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.77</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="W8" t="n">
-        <v>2.16</v>
+        <v>2.48</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z8" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.6</v>
+        <v>6.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AK8" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>Atletico FC Cali</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.63</v>
+        <v>2.88</v>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6</v>
+        <v>2.5</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>2.78</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="T9" t="n">
-        <v>2.34</v>
+        <v>1.88</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.14</v>
+        <v>1.54</v>
       </c>
       <c r="W9" t="n">
-        <v>2.34</v>
+        <v>1.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB9" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN9" t="n">
         <v>48</v>
       </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="AO9" t="n">
         <v>38</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Atletico FC Cali</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.05</v>
+        <v>2.58</v>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>2.66</v>
       </c>
       <c r="H10" t="n">
-        <v>2.42</v>
+        <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>2.64</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q10" t="n">
         <v>3.5</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="R10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.37</v>
       </c>
-      <c r="P10" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.63</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>6.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>900</v>
+        <v>95</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>6.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.38</v>
+        <v>2.86</v>
       </c>
       <c r="G11" t="n">
-        <v>2.42</v>
+        <v>2.94</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>2.94</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.76</v>
+        <v>1.56</v>
       </c>
       <c r="M11" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.22</v>
+        <v>2.84</v>
       </c>
       <c r="O11" t="n">
-        <v>1.79</v>
+        <v>1.51</v>
       </c>
       <c r="P11" t="n">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.5</v>
+        <v>2.58</v>
       </c>
       <c r="R11" t="n">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>8.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="T11" t="n">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="U11" t="n">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="V11" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="X11" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AK11" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL11" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO11" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="H12" t="n">
-        <v>2.94</v>
+        <v>2.66</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.56</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.48</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AO12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
         <v>2.84</v>
       </c>
-      <c r="G13" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N13" t="n">
-        <v>3.75</v>
+        <v>2.58</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="P13" t="n">
-        <v>1.95</v>
+        <v>1.54</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2.72</v>
       </c>
       <c r="R13" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>3.55</v>
+        <v>5.6</v>
       </c>
       <c r="T13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.74</v>
       </c>
-      <c r="U13" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>420</v>
       </c>
       <c r="AM13" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,111 +2273,111 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>CSD Rangers</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.98</v>
+        <v>2.22</v>
       </c>
       <c r="G14" t="n">
-        <v>3.35</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.68</v>
+        <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="L14" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="M14" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>2.56</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.68</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="T14" t="n">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="W14" t="n">
-        <v>1.43</v>
+        <v>1.77</v>
       </c>
       <c r="X14" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.4</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>13.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
         <v>1000</v>
@@ -2389,10 +2389,10 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,118 +2422,118 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G15" t="n">
         <v>2.36</v>
       </c>
-      <c r="G15" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N15" t="n">
         <v>3.3</v>
       </c>
-      <c r="K15" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.7</v>
-      </c>
       <c r="O15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.34</v>
       </c>
-      <c r="P15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.4</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="X15" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y15" t="n">
         <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH15" t="n">
         <v>19.5</v>
       </c>
-      <c r="AG15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>21</v>
-      </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL15" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
         <v>23</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CSD Rangers</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.97</v>
+        <v>2.26</v>
       </c>
       <c r="G16" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I16" t="n">
         <v>4.1</v>
       </c>
-      <c r="I16" t="n">
-        <v>4.7</v>
-      </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="N16" t="n">
-        <v>3.35</v>
+        <v>2.72</v>
       </c>
       <c r="O16" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="P16" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.14</v>
+        <v>2.62</v>
       </c>
       <c r="R16" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="S16" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.86</v>
+        <v>2.12</v>
       </c>
       <c r="U16" t="n">
-        <v>1.94</v>
+        <v>1.71</v>
       </c>
       <c r="V16" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="W16" t="n">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,123 +2678,123 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Ferroviaria</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.04</v>
+        <v>1.6</v>
       </c>
       <c r="G17" t="n">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="H17" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="I17" t="n">
-        <v>4.7</v>
+        <v>7.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>2.96</v>
+        <v>3.75</v>
       </c>
       <c r="O17" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>1.65</v>
+        <v>1.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="S17" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="T17" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
         <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="W17" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Z17" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE17" t="n">
         <v>110</v>
       </c>
-      <c r="AB17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>75</v>
-      </c>
       <c r="AF17" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AJ17" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,118 +2818,118 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ferroviaria</t>
+          <t>Boyaca Chico</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.67</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.84</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W18" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>130</v>
       </c>
       <c r="AF18" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,260 +2948,125 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Boyaca Chico</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.78</v>
+        <v>1.15</v>
       </c>
       <c r="G19" t="n">
-        <v>1.85</v>
+        <v>1.18</v>
       </c>
       <c r="H19" t="n">
-        <v>5.7</v>
+        <v>26</v>
       </c>
       <c r="I19" t="n">
-        <v>6.2</v>
+        <v>36</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>8.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.65</v>
+        <v>10.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S19" t="n">
         <v>2.8</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5.1</v>
-      </c>
       <c r="T19" t="n">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="V19" t="n">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="W19" t="n">
-        <v>2.18</v>
+        <v>6.6</v>
       </c>
       <c r="X19" t="n">
-        <v>11.5</v>
+        <v>27</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="AA19" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>7.8</v>
       </c>
       <c r="AK19" t="n">
         <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM19" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>19.5</v>
+        <v>4.3</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-10-13</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Nicaragua</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="H20" t="n">
-        <v>30</v>
-      </c>
-      <c r="I20" t="n">
-        <v>50</v>
-      </c>
-      <c r="J20" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO20" t="n">
         <v>1000</v>
       </c>
     </row>
